--- a/static/excel/batch_template_zh-cn.xlsx
+++ b/static/excel/batch_template_zh-cn.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14940"/>
+    <workbookView xWindow="-31120" yWindow="-140" windowWidth="25600" windowHeight="14940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="586">
   <si>
     <r>
       <t>邮箱</t>
@@ -5690,10 +5690,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>微信二清海外</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>泰国</t>
     <rPh sb="0" eb="1">
       <t>tai guo</t>
@@ -5712,18 +5708,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>支付宝香港线下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付宝香港线上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付宝海外</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>柬埔寨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5757,45 +5741,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>香港银联</t>
-    <rPh sb="0" eb="1">
-      <t>xiang gang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>y hang</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>lian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香港FPS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信香港</t>
-    <rPh sb="0" eb="1">
-      <t>wei xin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xiang gang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>支付宝海外2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>微信直连</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信融合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>支付宝海外预授权</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5805,10 +5754,6 @@
   </si>
   <si>
     <t>支付宝海外1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信二清</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5889,6 +5834,54 @@
       </rPr>
       <t>*</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信美金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信跨境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信融合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝香港线下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝香港线上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信直连</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信香港</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港银联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港FPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信公众号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝香港直连线上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝香港直连线下</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6414,14 +6407,14 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AD201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView zoomScale="98" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.33203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.6640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="40.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" style="3"/>
@@ -6432,7 +6425,7 @@
     <col min="12" max="12" width="21.83203125" style="10" bestFit="1" customWidth="1"/>
     <col min="13" max="17" width="19.33203125" style="3"/>
     <col min="18" max="18" width="19.33203125" style="8"/>
-    <col min="19" max="19" width="19.33203125" style="3"/>
+    <col min="19" max="19" width="138.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="21.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="23.5" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="24" width="19.33203125" style="3"/>
@@ -6446,7 +6439,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>540</v>
@@ -6482,16 +6475,16 @@
         <v>9</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>10</v>
@@ -6548,7 +6541,7 @@
       <c r="L2" s="9"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="O2" s="5"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="7"/>
@@ -15063,16 +15056,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表3" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScale="108" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
@@ -15093,25 +15085,25 @@
         <v>550</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>554</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>555</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>556</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>564</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -15119,7 +15111,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>551</v>
@@ -15137,16 +15129,16 @@
         <v>551</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -15154,10 +15146,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>553</v>
+        <v>575</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -15166,11 +15158,11 @@
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="K3" s="11"/>
     </row>
@@ -15179,10 +15171,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -15191,7 +15183,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="K4" s="11"/>
     </row>
@@ -15200,7 +15192,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -15210,7 +15202,7 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="K5" s="11"/>
     </row>
@@ -15219,7 +15211,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>557</v>
+        <v>578</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -15229,7 +15221,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="K6" s="11"/>
     </row>
@@ -15238,7 +15230,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>558</v>
+        <v>579</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -15255,7 +15247,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -15263,7 +15255,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -15271,7 +15263,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -15279,7 +15271,23 @@
         <v>10</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>559</v>
+        <v>583</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="21">
+        <v>11</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="21">
+        <v>12</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>585</v>
       </c>
     </row>
   </sheetData>

--- a/static/excel/batch_template_zh-cn.xlsx
+++ b/static/excel/batch_template_zh-cn.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beibei/Desktop/excel&amp;photo-model/hk/2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beibei/Desktop/excel&amp;photo-model/hk/signup/merchant/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-31120" yWindow="-140" windowWidth="25600" windowHeight="14940" activeTab="2"/>
+    <workbookView xWindow="-31200" yWindow="400" windowWidth="25600" windowHeight="14940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="591">
   <si>
     <r>
       <t>邮箱</t>
@@ -5745,10 +5745,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>支付宝海外预授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>支付宝海外dcc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5837,51 +5833,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>微信跨境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝香港线上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信直连</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>微信美金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>微信融合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信香港</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝香港线下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港银联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港FPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信公众号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝香港直连线上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝香港直连线下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝海外直连线上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>微信跨境</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>微信融合</t>
+    <t>支付宝新加坡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>支付宝香港线下</t>
+    <t>支付宝预授权新加坡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>支付宝香港线上</t>
+    <t>NETSPay</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>微信直连</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信香港</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香港银联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香港FPS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信公众号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付宝香港直连线上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付宝香港直连线下</t>
+    <t>加密币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6408,7 +6428,7 @@
   <dimension ref="A1:AD201"/>
   <sheetViews>
     <sheetView zoomScale="98" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.33203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6439,7 +6459,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>540</v>
@@ -6475,16 +6495,16 @@
         <v>9</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>572</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>573</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>10</v>
@@ -15056,10 +15076,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表3" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15111,10 +15131,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>551</v>
+        <v>586</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>551</v>
@@ -15132,10 +15152,10 @@
         <v>557</v>
       </c>
       <c r="I2" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>567</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>568</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>557</v>
@@ -15146,10 +15166,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>557</v>
+        <v>587</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -15171,10 +15191,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>566</v>
+        <v>588</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -15192,9 +15212,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>577</v>
-      </c>
-      <c r="C5" s="11"/>
+        <v>579</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>589</v>
+      </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -15211,9 +15233,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>578</v>
-      </c>
-      <c r="C6" s="11"/>
+        <v>574</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>590</v>
+      </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -15230,7 +15254,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -15247,7 +15271,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -15255,7 +15279,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -15263,7 +15287,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -15271,7 +15295,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -15279,7 +15303,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -15287,6 +15311,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="21" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="21">
+        <v>13</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>585</v>
       </c>
     </row>
